--- a/biology/Botanique/Nonea/Nonea.xlsx
+++ b/biology/Botanique/Nonea/Nonea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nonea (en français, les nonées) est un genre de plantes herbacées vivaces ou annuelles appartenant à la famille des Boraginaceae. Leurs feuilles sont vert-de-gris et velues.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nonées sont présentes en Europe centrale et en Europe de l'Est, jusqu'aux plaines de la Volga, ainsi qu'en Europe méditerranéenne (Italie) pour certaines espèces. On trouve d'autres espèces en Asie centrale.
 </t>
@@ -568,7 +584,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre nonée comprend vingt-cinq espèces parmi lesquelles :
 Nonea lutea (Desr.) DC. ;
